--- a/database/xl_dir/2022_12/2022-12-16.xlsx
+++ b/database/xl_dir/2022_12/2022-12-16.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10時46分21秒</t>
+          <t>17時28分9秒</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -482,7 +482,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9時30分</t>
+          <t>16時11分</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -506,7 +506,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5秒時点</t>
+          <t>59秒時点</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>454545</v>
+        <v>435625</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10時46分21秒</t>
+          <t>17時28分9秒</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10時46分21秒</t>
+          <t>17時28分9秒</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10時46分21秒</t>
+          <t>17時28分9秒</t>
         </is>
       </c>
     </row>

--- a/database/xl_dir/2022_12/2022-12-16.xlsx
+++ b/database/xl_dir/2022_12/2022-12-16.xlsx
@@ -1,128 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -482,7 +357,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9時30分</t>
+          <t>11時14分</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -506,7 +381,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5秒時点</t>
+          <t>49秒時点</t>
         </is>
       </c>
       <c r="B4" t="n">
